--- a/service/pasthouronactivity.xlsx
+++ b/service/pasthouronactivity.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1340</v>
+        <v>497</v>
       </c>
       <c r="D2" t="n">
-        <v>1567</v>
+        <v>512</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>1722.5</v>
+        <v>707.2</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.027576197387521</v>
+        <v>-27.60180995475113</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.32919254658385</v>
+        <v>-34.5679012345679</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>263.768115942029</v>
+        <v>26.66666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +597,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>798</v>
+        <v>310</v>
       </c>
       <c r="D5" t="n">
-        <v>899</v>
+        <v>319</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>1163</v>
+        <v>504</v>
       </c>
       <c r="J5" t="n">
-        <v>-22.69991401547722</v>
+        <v>-36.70634920634921</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>228</v>
+      </c>
+      <c r="D6" t="n">
+        <v>262</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>490</v>
-      </c>
-      <c r="D6" t="n">
-        <v>631</v>
-      </c>
-      <c r="E6" t="n">
-        <v>130</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12</v>
-      </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>789</v>
+        <v>364</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.02534854245881</v>
+        <v>-28.02197802197802</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>-27.46478873239436</v>
+        <v>-25.45454545454545</v>
       </c>
     </row>
     <row r="8">
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="J8" t="n">
-        <v>-15.21739130434783</v>
+        <v>-5.042016806722693</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1253</v>
+        <v>441</v>
       </c>
       <c r="J9" t="n">
-        <v>-67.75738228252195</v>
+        <v>-63.49206349206349</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>-42.62295081967213</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="11">
@@ -835,28 +835,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>-22.89156626506024</v>
+        <v>-50</v>
       </c>
     </row>
   </sheetData>

--- a/service/pasthouronactivity.xlsx
+++ b/service/pasthouronactivity.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>497</v>
+        <v>878</v>
       </c>
       <c r="D2" t="n">
-        <v>512</v>
+        <v>910</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>707.2</v>
+        <v>1501.5</v>
       </c>
       <c r="J2" t="n">
-        <v>-27.60180995475113</v>
+        <v>-39.39393939393939</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="J3" t="n">
-        <v>-34.5679012345679</v>
+        <v>-39.86486486486487</v>
       </c>
     </row>
     <row r="4">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -584,7 +584,7 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>26.66666666666666</v>
+        <v>88.33333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>310</v>
+        <v>518</v>
       </c>
       <c r="D5" t="n">
-        <v>319</v>
+        <v>530</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>504</v>
+        <v>926</v>
       </c>
       <c r="J5" t="n">
-        <v>-36.70634920634921</v>
+        <v>-42.7645788336933</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>228</v>
+        <v>373</v>
       </c>
       <c r="D6" t="n">
-        <v>262</v>
+        <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>364</v>
+        <v>642</v>
       </c>
       <c r="J6" t="n">
-        <v>-28.02197802197802</v>
+        <v>-34.57943925233645</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="J7" t="n">
-        <v>-25.45454545454545</v>
+        <v>-35.71428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>441</v>
+        <v>788</v>
       </c>
       <c r="J9" t="n">
-        <v>-63.49206349206349</v>
+        <v>-68.65482233502537</v>
       </c>
     </row>
     <row r="10">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
-        <v>-40</v>
+        <v>-49.47368421052632</v>
       </c>
     </row>
     <row r="11">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>-50</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="12">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="J12" t="n">
-        <v>-50</v>
+        <v>-67.05882352941177</v>
       </c>
     </row>
   </sheetData>

--- a/service/pasthouronactivity.xlsx
+++ b/service/pasthouronactivity.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>878</v>
+        <v>296</v>
       </c>
       <c r="D2" t="n">
-        <v>910</v>
+        <v>341</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>1501.5</v>
+        <v>601.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-39.39393939393939</v>
+        <v>-43.34607077587639</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="J3" t="n">
-        <v>-39.86486486486487</v>
+        <v>-50.63291139240506</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +563,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>88.33333333333333</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>518</v>
+        <v>252</v>
       </c>
       <c r="D5" t="n">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>15</v>
       </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
       <c r="I5" t="n">
-        <v>926</v>
+        <v>558</v>
       </c>
       <c r="J5" t="n">
-        <v>-42.7645788336933</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>373</v>
+        <v>189</v>
       </c>
       <c r="D6" t="n">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>642</v>
+        <v>366</v>
       </c>
       <c r="J6" t="n">
-        <v>-34.57943925233645</v>
+        <v>-31.42076502732241</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="J7" t="n">
-        <v>-35.71428571428571</v>
+        <v>-35.65217391304348</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.042016806722693</v>
+        <v>-17.88079470198676</v>
       </c>
     </row>
     <row r="9">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>788</v>
+        <v>392</v>
       </c>
       <c r="J9" t="n">
-        <v>-68.65482233502537</v>
+        <v>-70.15306122448979</v>
       </c>
     </row>
     <row r="10">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -779,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>-49.47368421052632</v>
+        <v>-65.95744680851064</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
       <c r="J11" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>-67.05882352941177</v>
+        <v>-61.76470588235294</v>
       </c>
     </row>
   </sheetData>

--- a/service/pasthouronactivity.xlsx
+++ b/service/pasthouronactivity.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1073</v>
+        <v>671.011</v>
       </c>
       <c r="D2" t="n">
-        <v>1328</v>
+        <v>984.0219999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="I2" t="n">
-        <v>1595.1</v>
+        <v>2538.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-16.74503165945709</v>
+        <v>-61.24219150025603</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="D3" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="J3" t="n">
-        <v>-18.9873417721519</v>
+        <v>-8.54700854700855</v>
       </c>
     </row>
     <row r="4">
@@ -563,19 +563,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>302</v>
+        <v>468</v>
       </c>
       <c r="D4" t="n">
-        <v>311</v>
+        <v>489</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>211</v>
+        <v>388.9999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>749</v>
+        <v>1200</v>
       </c>
       <c r="D5" t="n">
-        <v>865</v>
+        <v>1356</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I5" t="n">
-        <v>1028</v>
+        <v>1447</v>
       </c>
       <c r="J5" t="n">
-        <v>-15.85603112840467</v>
+        <v>-6.288873531444372</v>
       </c>
     </row>
     <row r="6">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>603</v>
+        <v>930</v>
       </c>
       <c r="D6" t="n">
-        <v>735</v>
+        <v>1097</v>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.034300791556732</v>
+        <v>1.292705447830111</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>281</v>
+      </c>
+      <c r="D7" t="n">
+        <v>306</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>189</v>
-      </c>
-      <c r="D7" t="n">
-        <v>211</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.051724137931039</v>
+        <v>-12.82051282051282</v>
       </c>
     </row>
     <row r="8">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="D9" t="n">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>821</v>
+        <v>1251</v>
       </c>
       <c r="J9" t="n">
-        <v>-66.74786845310597</v>
+        <v>-66.58673061550759</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +767,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="J10" t="n">
-        <v>-38.3177570093458</v>
+        <v>-31.09756097560976</v>
       </c>
     </row>
     <row r="11">
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
         <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>-60</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="12">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="J12" t="n">
-        <v>-51.35135135135135</v>
+        <v>-61.06194690265487</v>
       </c>
     </row>
   </sheetData>
